--- a/MainTop/06.11.2024/new.xlsx
+++ b/MainTop/06.11.2024/new.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="8">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -237,7 +237,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,8 +246,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
   </fills>
@@ -285,12 +297,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -303,6 +323,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF81D41A"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -311,10 +391,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -336,46 +416,338 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <f aca="false">SUM(B2:B43)</f>
+        <v>156</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="0" t="n">
         <v>2</v>
       </c>
     </row>
